--- a/biology/Botanique/Amygdaloideae/Amygdaloideae.xlsx
+++ b/biology/Botanique/Amygdaloideae/Amygdaloideae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Amygdaloideae sont une sous-famille de plantes à fleurs de la famille des Rosaceae.
 C'est notamment la sous-famille des pruniers, pêchers, cerisiers, pommiers, poiriers, sorbiers, etc.
@@ -512,9 +524,11 @@
           <t>Liste des tribus et sous-tribus</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon GRIN            (8 avril 2024)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon GRIN            (8 avril 2024) :
 Amygdaleae
 Exochordeae
 Gillenieae
@@ -553,9 +567,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon le Catalogue of Life                                   (8 avril 2024)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon le Catalogue of Life                                   (8 avril 2024) :
 Adenostoma Hook. &amp; Arn.
 Amelanchier Medik.
 Aria (Pers.) Host
@@ -650,9 +666,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon le Catalogue of Life                                   (8 avril 2024)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon le Catalogue of Life                                   (8 avril 2024) :
 Coleogynoideae E.I.Golubk.
 Crataegoideae Horan.
 Dichotomanthoideae Gladkova
